--- a/students_sample2.xlsx
+++ b/students_sample2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>name</t>
   </si>
@@ -65,21 +65,6 @@
   </si>
   <si>
     <t>Achala</t>
-  </si>
-  <si>
-    <t>Jaya</t>
-  </si>
-  <si>
-    <t>achalazone@gmail.com</t>
-  </si>
-  <si>
-    <t>Mahela</t>
-  </si>
-  <si>
-    <t>mahelagunawardana@gmail.com</t>
-  </si>
-  <si>
-    <t>mahelagunawardana1755556@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -424,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A4" sqref="A4:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -530,100 +515,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
-        <v>7777777779</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>7777777780</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6">
-        <v>7777777780</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/students_sample2.xlsx
+++ b/students_sample2.xlsx
@@ -61,10 +61,10 @@
     <t>achala.14@cse.mrt.ac.lk</t>
   </si>
   <si>
-    <t>aijdissanayake@gmail.com</t>
-  </si>
-  <si>
     <t>Achala</t>
+  </si>
+  <si>
+    <t>achalazone@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:I6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -491,10 +491,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="D3">
         <v>7777777778</v>
